--- a/Gender.xlsx
+++ b/Gender.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/caf02b73ef4d2187/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C38394-99A3-4722-97F3-96DECE8DCF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{97C38394-99A3-4722-97F3-96DECE8DCF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{879C3EB1-A01C-4DEE-972E-43D5EA68FBD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="139">
   <si>
     <t>Estonia</t>
   </si>
@@ -507,13 +507,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +550,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[P_Data_Extract_From_Gender_Statistics (2).xlsx]Sheet1!PivotTable6</c:name>
+    <c:name>[Gender.xlsx]Sheet1!PivotTable6</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -832,7 +833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -911,7 +912,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$6</c:f>
+              <c:f>Sheet1!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -925,7 +926,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$6</c:f>
+              <c:f>Sheet1!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5263,7 +5264,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602FB8CE-25DD-4017-BC7B-CCAC473159B6}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A4:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -5272,7 +5273,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
+    <pivotField axis="axisPage" dataField="1" showAll="0">
       <items count="59">
         <item x="0"/>
         <item x="5"/>
@@ -5550,8 +5551,9 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="3" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of Country Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
@@ -5890,10 +5892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149403EC-C795-4099-914B-E4ED7C358C71}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5911,35 +5913,43 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="4">
         <v>116</v>
       </c>
     </row>
